--- a/UUUU/UUUU.xlsx
+++ b/UUUU/UUUU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/UUUU/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_98724F49F5F973C9BB2050C4AFC269BADE1CFB25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C031277-C6AD-4CE4-8786-8B8BFF974628}"/>
+  <xr:revisionPtr revIDLastSave="390" documentId="11_98724F49F5F973C9BB2050C4AFC269BADE1CFB25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0AF2FCA-531A-413B-A9BA-B6FC400476AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="21600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2837" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2914" uniqueCount="644">
   <si>
     <t>Ticker</t>
   </si>
@@ -1752,15 +1752,6 @@
   </si>
   <si>
     <t>Average</t>
-  </si>
-  <si>
-    <t>Income Statement</t>
-  </si>
-  <si>
-    <t>Balance Sheet</t>
-  </si>
-  <si>
-    <t>Cash Flow</t>
   </si>
   <si>
     <t>RE Carbonate</t>
@@ -1817,6 +1808,192 @@
   </si>
   <si>
     <t xml:space="preserve">- Uranium industry is still small compared to solar or wind. Even if green energy is pushed, it maybe be subverted to those industries. </t>
+  </si>
+  <si>
+    <t>Uranium concentrates</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Income Statement *in thousands, USD</t>
+  </si>
+  <si>
+    <t>Balance Sheet *in thousands, USD</t>
+  </si>
+  <si>
+    <t>Cash Flow *in thousands, USD</t>
+  </si>
+  <si>
+    <t>COGs</t>
+  </si>
+  <si>
+    <t>Cost appliicable to Uranium concentrates</t>
+  </si>
+  <si>
+    <t>Cost appliicable to Vanadium concentrates</t>
+  </si>
+  <si>
+    <t>Cost appliicable to RE Carbonate</t>
+  </si>
+  <si>
+    <t>Underutilized capacity production costs applicable to RE Carbonate</t>
+  </si>
+  <si>
+    <t>Total COGs</t>
+  </si>
+  <si>
+    <t>Gross Margin</t>
+  </si>
+  <si>
+    <t>Exploration, development, and processing</t>
+  </si>
+  <si>
+    <t>Standby</t>
+  </si>
+  <si>
+    <t>Accretion of asset retirement obligations</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Total Operating Expenses</t>
+  </si>
+  <si>
+    <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Other Income</t>
+  </si>
+  <si>
+    <t>Gain on sale of assets</t>
+  </si>
+  <si>
+    <t>Other income</t>
+  </si>
+  <si>
+    <t>Total Other Income</t>
+  </si>
+  <si>
+    <t>Income before taxes</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Net Margin</t>
+  </si>
+  <si>
+    <t>Current Assets</t>
+  </si>
+  <si>
+    <t>Marketable securities</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Inventories</t>
+  </si>
+  <si>
+    <t>Prepaid expenses and other current assets</t>
+  </si>
+  <si>
+    <t>PP&amp;E and other assets held for sale</t>
+  </si>
+  <si>
+    <t>Non-current Assets</t>
+  </si>
+  <si>
+    <t>Mineral properties</t>
+  </si>
+  <si>
+    <t>Operating lease right of use assets</t>
+  </si>
+  <si>
+    <t>Other long-term receivables</t>
+  </si>
+  <si>
+    <t>Restricted cash</t>
+  </si>
+  <si>
+    <t>Total Non-current Assets</t>
+  </si>
+  <si>
+    <t>Current Liabilities</t>
+  </si>
+  <si>
+    <t>AP &amp; Accrued liabilities</t>
+  </si>
+  <si>
+    <t>Operating lease liability</t>
+  </si>
+  <si>
+    <t>Deposits for assets held for sale</t>
+  </si>
+  <si>
+    <t>Asset retirement obligation and other liabilities held for sale</t>
+  </si>
+  <si>
+    <t>Non-current Liabilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asset retirement obligations </t>
+  </si>
+  <si>
+    <t>Deferred revenue</t>
+  </si>
+  <si>
+    <t>Total Non-current Liabilities</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Common shares</t>
+  </si>
+  <si>
+    <t>Accumulated deficit</t>
+  </si>
+  <si>
+    <t>Accumulated other comprehensive loss</t>
+  </si>
+  <si>
+    <t>Total Shareholder's Equity</t>
+  </si>
+  <si>
+    <t>Non-controlling interests</t>
+  </si>
+  <si>
+    <t>Total Equity</t>
+  </si>
+  <si>
+    <t>Total Equity &amp; Liabilities</t>
+  </si>
+  <si>
+    <t>Current Ratio</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>SBB</t>
+  </si>
+  <si>
+    <t>Dividends</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +2054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1900,11 +2077,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1916,6 +2113,16 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2306,7 +2513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -2357,32 +2564,32 @@
     </row>
     <row r="9" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B24" s="5">
         <v>45284</v>
@@ -2395,90 +2602,2472 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:B41"/>
+  <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="G48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="P98" sqref="P98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="22.6328125" customWidth="1"/>
+    <col min="12" max="15" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="10.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="L2" s="7">
+        <v>43536</v>
+      </c>
+      <c r="M2" s="7">
+        <v>43538</v>
+      </c>
+      <c r="N2" s="7">
+        <v>43907</v>
+      </c>
+      <c r="O2" s="7">
+        <v>44277</v>
+      </c>
+      <c r="P2" s="7">
+        <v>44651</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>44993</v>
+      </c>
+      <c r="R2" s="7">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="7">
+        <v>44561</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>44926</v>
+      </c>
+      <c r="R3" s="7">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>583</v>
+      </c>
       <c r="B12" s="3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="4" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0</v>
+      </c>
+      <c r="R14" s="9">
+        <v>33278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>8778</v>
+      </c>
+      <c r="R15" s="9">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="9" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="4" t="s">
+      <c r="Q16" s="9">
+        <v>2122</v>
+      </c>
+      <c r="R16" s="9">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>1615</v>
+      </c>
+      <c r="R17" s="10">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="9" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="3" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="3" t="s">
-        <v>573</v>
+      <c r="I18" s="9">
+        <f>SUM(I14:I17)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" ref="J18:AA18" si="0">SUM(J14:J17)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="0"/>
+        <v>12515</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="0"/>
+        <v>37928</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="11" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0</v>
+      </c>
+      <c r="R20" s="9">
+        <v>15318</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>3769</v>
+      </c>
+      <c r="R21" s="9">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>1317</v>
+      </c>
+      <c r="R22" s="9">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="10" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>2758</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="I24" s="10">
+        <f>SUM(I20:I23)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" ref="J24:AA24" si="1">SUM(J20:J23)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="10">
+        <f t="shared" si="1"/>
+        <v>7844</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="1"/>
+        <v>18181</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="I25" s="9">
+        <f>I18-I24</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" ref="J25:AA25" si="2">J18-J24</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" si="2"/>
+        <v>4671</v>
+      </c>
+      <c r="R25" s="9">
+        <f t="shared" si="2"/>
+        <v>19747</v>
+      </c>
+      <c r="S25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="I26" s="13" t="e">
+        <f>I25/I18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="13" t="e">
+        <f t="shared" ref="J26:AA26" si="3">J25/J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q26" s="13">
+        <f t="shared" si="3"/>
+        <v>0.37323212145425488</v>
+      </c>
+      <c r="R26" s="13">
+        <f t="shared" si="3"/>
+        <v>0.52064437882303316</v>
+      </c>
+      <c r="S26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA26" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>9346</v>
+      </c>
+      <c r="R28" s="9">
+        <v>15531</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>13221</v>
+      </c>
+      <c r="R29" s="9">
+        <v>7476</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>1556</v>
+      </c>
+      <c r="R30" s="9">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>20845</v>
+      </c>
+      <c r="R31" s="9">
+        <v>23290</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="10" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>4641</v>
+      </c>
+      <c r="R32" s="10">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="I33" s="12">
+        <f>SUM(I28:I32)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <f t="shared" ref="J33:AA33" si="4">SUM(J28:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
+        <f t="shared" si="4"/>
+        <v>49609</v>
+      </c>
+      <c r="R33" s="12">
+        <f t="shared" si="4"/>
+        <v>52114</v>
+      </c>
+      <c r="S33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="I34" s="9">
+        <f>I25-I33</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="9">
+        <f t="shared" ref="J34:AA34" si="5">J25-J33</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="9">
+        <f t="shared" si="5"/>
+        <v>-44938</v>
+      </c>
+      <c r="R34" s="9">
+        <f t="shared" si="5"/>
+        <v>-32367</v>
+      </c>
+      <c r="S34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA34" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="I35" s="13" t="e">
+        <f>I34/I18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="13" t="e">
+        <f t="shared" ref="J35:AA35" si="6">J34/J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q35" s="13">
+        <f t="shared" si="6"/>
+        <v>-3.5907311226528167</v>
+      </c>
+      <c r="R35" s="13">
+        <f t="shared" si="6"/>
+        <v>-0.85338008858890524</v>
+      </c>
+      <c r="S35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA35" s="13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="11" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q37" s="9">
+        <v>366</v>
+      </c>
+      <c r="R37" s="9">
+        <v>119257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>-15372</v>
+      </c>
+      <c r="R38" s="10">
+        <v>13142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10" t="s">
+        <v>604</v>
+      </c>
+      <c r="I39" s="10">
+        <f>SUM(I37:I38)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" ref="J39:AA39" si="7">SUM(J37:J38)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="10">
+        <f t="shared" si="7"/>
+        <v>-15006</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="7"/>
+        <v>132399</v>
+      </c>
+      <c r="S39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA39" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="I40" s="9">
+        <f>I34+I39</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="9">
+        <f t="shared" ref="J40:AA40" si="8">J34+J39</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="9">
+        <f t="shared" si="8"/>
+        <v>-59944</v>
+      </c>
+      <c r="R40" s="9">
+        <f t="shared" si="8"/>
+        <v>100032</v>
+      </c>
+      <c r="S40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA40" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="10" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>0</v>
+      </c>
+      <c r="R41" s="10">
+        <v>-276</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="I42" s="9">
+        <f>SUM(I40:I41)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="9">
+        <f t="shared" ref="J42:AA42" si="9">SUM(J40:J41)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="9">
+        <f t="shared" si="9"/>
+        <v>-59944</v>
+      </c>
+      <c r="R42" s="9">
+        <f t="shared" si="9"/>
+        <v>99756</v>
+      </c>
+      <c r="S42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="X42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Y42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AA42" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="13" t="s">
+        <v>607</v>
+      </c>
+      <c r="I43" s="13" t="e">
+        <f>I42/I18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="13" t="e">
+        <f t="shared" ref="J43:AA43" si="10">J42/J18</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q43" s="13">
+        <f t="shared" si="10"/>
+        <v>-4.7897722732720736</v>
+      </c>
+      <c r="R43" s="13">
+        <f t="shared" si="10"/>
+        <v>2.6301413203965409</v>
+      </c>
+      <c r="S43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA43" s="13" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="49" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="4" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="50" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q50" s="14">
+        <v>62820</v>
+      </c>
+      <c r="R50" s="14">
+        <v>57445</v>
+      </c>
+    </row>
+    <row r="51" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="14" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q51" s="14">
+        <v>12192</v>
+      </c>
+      <c r="R51" s="14">
+        <v>133044</v>
+      </c>
+    </row>
+    <row r="52" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q52" s="14">
+        <v>519</v>
+      </c>
+      <c r="R52" s="14">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="53" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>38155</v>
+      </c>
+      <c r="R53" s="14">
+        <v>38868</v>
+      </c>
+    </row>
+    <row r="54" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="14" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>9529</v>
+      </c>
+      <c r="R54" s="14">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="55" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="Q55" s="15">
+        <v>12375</v>
+      </c>
+      <c r="R55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="14" t="s">
+        <v>440</v>
+      </c>
+      <c r="I56" s="14">
+        <f>SUM(I50:I55)</f>
+        <v>0</v>
+      </c>
+      <c r="J56" s="14">
+        <f t="shared" ref="J56:AA56" si="11">SUM(J50:J55)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="14">
+        <f t="shared" si="11"/>
+        <v>135590</v>
+      </c>
+      <c r="R56" s="14">
+        <f t="shared" si="11"/>
+        <v>232695</v>
+      </c>
+      <c r="S56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA56" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="4" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="58" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="14" t="s">
+        <v>615</v>
+      </c>
+      <c r="Q58" s="14">
+        <v>83539</v>
+      </c>
+      <c r="R58" s="14">
+        <v>119581</v>
+      </c>
+    </row>
+    <row r="59" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q59" s="14">
+        <v>12662</v>
+      </c>
+      <c r="R59" s="14">
+        <v>26123</v>
+      </c>
+    </row>
+    <row r="60" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q60" s="14">
+        <v>2465</v>
+      </c>
+      <c r="R60" s="14">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="61" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="14" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q61" s="14">
+        <v>1376</v>
+      </c>
+      <c r="R61" s="14">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="62" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="14" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q62" s="14">
+        <v>19329</v>
+      </c>
+      <c r="R62" s="14">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q63" s="14">
+        <v>1537</v>
+      </c>
+      <c r="R63" s="14">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="64" spans="2:27" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="Q64" s="15">
+        <v>17449</v>
+      </c>
+      <c r="R64" s="15">
+        <v>17579</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="I65" s="10">
+        <f>SUM(I58:I64)</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="10">
+        <f t="shared" ref="J65:AA65" si="12">SUM(J58:J64)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="10">
+        <f t="shared" si="12"/>
+        <v>138357</v>
+      </c>
+      <c r="R65" s="10">
+        <f t="shared" si="12"/>
+        <v>169244</v>
+      </c>
+      <c r="S65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>470</v>
+      </c>
+      <c r="I66" s="9">
+        <f>I65+I56</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="9">
+        <f t="shared" ref="J66:AA66" si="13">J65+J56</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="9">
+        <f t="shared" si="13"/>
+        <v>273947</v>
+      </c>
+      <c r="R66" s="9">
+        <f t="shared" si="13"/>
+        <v>401939</v>
+      </c>
+      <c r="S66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="4" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="68" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="Q68" s="9">
+        <v>6929</v>
+      </c>
+      <c r="R68" s="9">
+        <v>10161</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q69" s="9">
+        <v>59</v>
+      </c>
+      <c r="R69" s="9">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q70" s="9">
+        <v>6000</v>
+      </c>
+      <c r="R70" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="10" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>5636</v>
+      </c>
+      <c r="R71" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="I72" s="9">
+        <f>SUM(I68:I71)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="9">
+        <f t="shared" ref="J72:AA72" si="14">SUM(J68:J71)</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="9">
+        <f t="shared" si="14"/>
+        <v>18624</v>
+      </c>
+      <c r="R72" s="9">
+        <f t="shared" si="14"/>
+        <v>10360</v>
+      </c>
+      <c r="S72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="T72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="W72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="X72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Y72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Z72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="AA72" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="11" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="9" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q74" s="9">
+        <v>1319</v>
+      </c>
+      <c r="R74" s="9">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q75" s="9">
+        <v>9595</v>
+      </c>
+      <c r="R75" s="9">
+        <v>10922</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="10" t="s">
+        <v>627</v>
+      </c>
+      <c r="Q76" s="10">
+        <v>0</v>
+      </c>
+      <c r="R76" s="10">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="I77" s="10">
+        <f>SUM(I74:I76)</f>
+        <v>0</v>
+      </c>
+      <c r="J77" s="10">
+        <f t="shared" ref="J77:AA77" si="15">SUM(J74:J76)</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="10">
+        <f t="shared" si="15"/>
+        <v>10914</v>
+      </c>
+      <c r="R77" s="10">
+        <f t="shared" si="15"/>
+        <v>12374</v>
+      </c>
+      <c r="S77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="I78" s="9">
+        <f>I77+I72</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" ref="J78:AA78" si="16">J77+J72</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q78" s="9">
+        <f t="shared" si="16"/>
+        <v>29538</v>
+      </c>
+      <c r="R78" s="9">
+        <f t="shared" si="16"/>
+        <v>22734</v>
+      </c>
+      <c r="S78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA78" s="9">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="11" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80" spans="2:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="Q80" s="9">
+        <v>698493</v>
+      </c>
+      <c r="R80" s="9">
+        <v>733450</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q81" s="9">
+        <v>-456120</v>
+      </c>
+      <c r="R81" s="9">
+        <v>-356258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q82" s="10">
+        <v>-1946</v>
+      </c>
+      <c r="R82" s="10">
+        <v>-1946</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B83" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="I83" s="9">
+        <f>SUM(I80:I82)</f>
+        <v>0</v>
+      </c>
+      <c r="J83" s="9">
+        <f t="shared" ref="J83:AA83" si="17">SUM(J80:J82)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q83" s="9">
+        <f t="shared" si="17"/>
+        <v>240427</v>
+      </c>
+      <c r="R83" s="9">
+        <f t="shared" si="17"/>
+        <v>375246</v>
+      </c>
+      <c r="S83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA83" s="9">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="10" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q84" s="10">
+        <v>3982</v>
+      </c>
+      <c r="R84" s="10">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B85" s="10" t="s">
+        <v>635</v>
+      </c>
+      <c r="I85" s="10">
+        <f>SUM(I83:I84)</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="10">
+        <f t="shared" ref="J85:AA85" si="18">SUM(J83:J84)</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="10">
+        <f t="shared" si="18"/>
+        <v>244409</v>
+      </c>
+      <c r="R85" s="10">
+        <f t="shared" si="18"/>
+        <v>379205</v>
+      </c>
+      <c r="S85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="I86" s="9">
+        <f>I85+I78</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" ref="J86:AA86" si="19">J85+J78</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="9">
+        <f t="shared" si="19"/>
+        <v>273947</v>
+      </c>
+      <c r="R86" s="9">
+        <f t="shared" si="19"/>
+        <v>401939</v>
+      </c>
+      <c r="S86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA86" s="9">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="I88" s="16" t="e">
+        <f>I56/I72</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J88" s="16" t="e">
+        <f t="shared" ref="J88:AA88" si="20">J56/J72</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q88" s="16">
+        <f t="shared" si="20"/>
+        <v>7.2803908934707904</v>
+      </c>
+      <c r="R88" s="16">
+        <f t="shared" si="20"/>
+        <v>22.460907335907336</v>
+      </c>
+      <c r="S88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA88" s="16" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="P90" s="9">
+        <v>-29294</v>
+      </c>
+      <c r="Q90" s="9">
+        <v>-49702</v>
+      </c>
+      <c r="R90" s="9">
+        <v>-15409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="10" t="s">
+        <v>639</v>
+      </c>
+      <c r="P91" s="10">
+        <v>-1368</v>
+      </c>
+      <c r="Q91" s="10">
+        <v>-1996</v>
+      </c>
+      <c r="R91" s="10">
+        <f>-15437-6782</f>
+        <v>-22219</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="I92" s="9">
+        <f>SUM(I90:I91)</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="9">
+        <f t="shared" ref="J92:AA92" si="21">SUM(J90:J91)</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P92" s="9">
+        <f t="shared" si="21"/>
+        <v>-30662</v>
+      </c>
+      <c r="Q92" s="9">
+        <f t="shared" si="21"/>
+        <v>-51698</v>
+      </c>
+      <c r="R92" s="9">
+        <f t="shared" si="21"/>
+        <v>-37628</v>
+      </c>
+      <c r="S92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA92" s="9">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="94" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="P94" s="9">
+        <v>106208</v>
+      </c>
+      <c r="Q94" s="9">
+        <v>7886</v>
+      </c>
+      <c r="R94" s="9">
+        <v>31813</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="P95" s="9">
+        <v>2158</v>
+      </c>
+      <c r="Q95" s="9">
+        <v>4641</v>
+      </c>
+      <c r="R95" s="9">
+        <v>4625</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="P96" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="9">
+        <v>0</v>
+      </c>
+      <c r="R96" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="9" t="s">
+        <v>643</v>
+      </c>
+      <c r="P97" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="9">
+        <v>0</v>
+      </c>
+      <c r="R97" s="9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3986,7 +6575,7 @@
       <selection activeCell="C35" sqref="C35"/>
       <selection pane="topRight" activeCell="C35" sqref="C35"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="O2" sqref="O2:X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
